--- a/static/Models/Regression/Equation/PVT Bank.xlsx
+++ b/static/Models/Regression/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.008386801928281784</v>
+        <v>0.008912347257137299</v>
       </c>
       <c r="C2">
-        <v>0.09069083631038666</v>
+        <v>0.09001287817955017</v>
       </c>
       <c r="D2">
-        <v>-0.1136105135083199</v>
+        <v>-0.1157576963305473</v>
       </c>
       <c r="E2">
-        <v>0.01848808117210865</v>
+        <v>0.01954446546733379</v>
       </c>
       <c r="F2">
-        <v>-0.01262227166444063</v>
+        <v>-0.01161194778978825</v>
       </c>
       <c r="G2">
-        <v>0.003328397870063782</v>
+        <v>0.003663923824205995</v>
       </c>
       <c r="H2">
-        <v>0.004870546516031027</v>
+        <v>0.004455887246876955</v>
       </c>
       <c r="I2">
-        <v>-0.01413371134549379</v>
+        <v>-0.01457622181624174</v>
       </c>
       <c r="J2">
-        <v>-0.02634035609662533</v>
+        <v>-0.02876641787588596</v>
       </c>
       <c r="K2">
-        <v>-0.004943490494042635</v>
+        <v>-0.0009936938295140862</v>
       </c>
       <c r="L2">
-        <v>-0.003111858852207661</v>
+        <v>-0.002292451681569219</v>
       </c>
       <c r="M2">
-        <v>-0.003048510290682316</v>
+        <v>-0.0005308776744641364</v>
       </c>
       <c r="N2">
-        <v>0.007678300607949495</v>
+        <v>0.008591345511376858</v>
       </c>
       <c r="O2">
-        <v>0.007622963283210993</v>
+        <v>0.009760358370840549</v>
       </c>
       <c r="P2">
-        <v>0.07674118131399155</v>
+        <v>0.07611914724111557</v>
       </c>
       <c r="Q2">
-        <v>0.08722106367349625</v>
+        <v>0.08863002061843872</v>
       </c>
       <c r="R2">
-        <v>-0.002098797587677836</v>
+        <v>0.001154310302808881</v>
       </c>
       <c r="S2">
-        <v>0.01461051497608423</v>
+        <v>0.0149708166718483</v>
       </c>
       <c r="T2">
-        <v>-0.09353920817375183</v>
+        <v>-0.09406274557113647</v>
       </c>
       <c r="U2">
-        <v>0.06790070235729218</v>
+        <v>0.06680690497159958</v>
       </c>
       <c r="V2">
-        <v>0.0006225762190297246</v>
+        <v>0.002881409600377083</v>
       </c>
       <c r="W2">
-        <v>0.0509365014731884</v>
+        <v>0.05088606476783752</v>
       </c>
       <c r="X2">
-        <v>-0.001084020477719605</v>
+        <v>-0.0006839112611487508</v>
       </c>
       <c r="Y2">
-        <v>0.05007331445813179</v>
+        <v>0.05129588395357132</v>
       </c>
       <c r="Z2">
-        <v>-0.02649113535881042</v>
+        <v>-0.02673980034887791</v>
       </c>
       <c r="AA2">
-        <v>0.01095896866172552</v>
+        <v>0.01098779961466789</v>
       </c>
       <c r="AB2">
-        <v>-0.09357006847858429</v>
+        <v>-0.09386701136827469</v>
       </c>
       <c r="AC2">
-        <v>0.03924224898219109</v>
+        <v>0.04056751355528831</v>
       </c>
       <c r="AD2">
-        <v>-0.02044510655105114</v>
+        <v>-0.02132350020110607</v>
       </c>
       <c r="AE2">
-        <v>0.06685525178909302</v>
+        <v>0.06686430424451828</v>
       </c>
       <c r="AF2">
-        <v>0.004264383111149073</v>
+        <v>0.002979957964271307</v>
       </c>
       <c r="AG2">
-        <v>-0.07214520871639252</v>
+        <v>-0.06951190531253815</v>
       </c>
       <c r="AH2">
-        <v>0.1638579070568085</v>
+        <v>0.1604640632867813</v>
       </c>
       <c r="AI2">
-        <v>-0.03962306678295135</v>
+        <v>-0.03975144028663635</v>
       </c>
       <c r="AJ2">
-        <v>-0.001044341479428113</v>
+        <v>-0.0002245131618110463</v>
       </c>
       <c r="AK2">
-        <v>0.001112331287004054</v>
+        <v>0.00181283603888005</v>
       </c>
       <c r="AL2">
-        <v>-0.01353102177381516</v>
+        <v>-0.01297228690236807</v>
       </c>
       <c r="AM2">
-        <v>-0.05888925865292549</v>
+        <v>-0.05758816376328468</v>
       </c>
       <c r="AN2">
-        <v>-0.0719287320971489</v>
+        <v>-0.07436428219079971</v>
       </c>
       <c r="AO2">
-        <v>0.0141811789944768</v>
+        <v>0.01186611037701368</v>
       </c>
       <c r="AP2">
-        <v>0.03819668292999268</v>
+        <v>0.03636026382446289</v>
       </c>
       <c r="AQ2">
-        <v>0.001965468283742666</v>
+        <v>0.001429953728802502</v>
       </c>
       <c r="AR2">
-        <v>0.03924120217561722</v>
+        <v>0.03539769724011421</v>
       </c>
       <c r="AS2">
-        <v>-0.02991573140025139</v>
+        <v>-0.03079742938280106</v>
       </c>
       <c r="AT2">
-        <v>0.0530422255396843</v>
+        <v>0.05403299257159233</v>
       </c>
       <c r="AU2">
-        <v>-0.02684266678988934</v>
+        <v>-0.02467884309589863</v>
       </c>
       <c r="AV2">
-        <v>0.02727694995701313</v>
+        <v>0.02333281375467777</v>
       </c>
       <c r="AW2">
-        <v>-0.02869266271591187</v>
+        <v>-0.02744620107114315</v>
       </c>
       <c r="AX2">
-        <v>-0.04234268516302109</v>
+        <v>-0.04982706904411316</v>
       </c>
       <c r="AY2">
-        <v>0.09291335940361023</v>
+        <v>0.09409299492835999</v>
       </c>
       <c r="AZ2">
-        <v>0.09967003762722015</v>
+        <v>0.1003641337156296</v>
       </c>
       <c r="BA2">
-        <v>-0.02189164236187935</v>
+        <v>-0.0198576133698225</v>
       </c>
       <c r="BB2">
-        <v>-0.1550978422164917</v>
+        <v>-0.1559108346700668</v>
       </c>
       <c r="BC2">
-        <v>-0.002998406765982509</v>
+        <v>-0.002719825832173228</v>
       </c>
       <c r="BD2">
-        <v>-0.03679264709353447</v>
+        <v>-0.03788723424077034</v>
       </c>
       <c r="BE2">
-        <v>0.007678207475692034</v>
+        <v>0.00629328191280365</v>
       </c>
       <c r="BF2">
-        <v>0.01681383326649666</v>
+        <v>0.01570499874651432</v>
       </c>
       <c r="BG2">
-        <v>-0.02743792533874512</v>
+        <v>-0.02853358723223209</v>
       </c>
       <c r="BH2">
-        <v>0.006038178224116564</v>
+        <v>0.004087949637323618</v>
       </c>
       <c r="BI2">
-        <v>0.04700109362602234</v>
+        <v>0.0462367981672287</v>
       </c>
       <c r="BJ2">
-        <v>-0.08981108665466309</v>
+        <v>-0.08941188454627991</v>
       </c>
       <c r="BK2">
-        <v>0.006337440107017756</v>
+        <v>0.005439768545329571</v>
       </c>
       <c r="BL2">
-        <v>0.007226536516100168</v>
+        <v>0.007810626644641161</v>
       </c>
       <c r="BM2">
-        <v>0.079458087682724</v>
+        <v>0.07735630124807358</v>
       </c>
       <c r="BN2">
-        <v>-0.07566158473491669</v>
+        <v>-0.07346749305725098</v>
       </c>
       <c r="BO2">
-        <v>0.1656090170145035</v>
+        <v>0.1687601655721664</v>
       </c>
       <c r="BP2">
-        <v>0.01543167792260647</v>
+        <v>0.01653748005628586</v>
       </c>
       <c r="BQ2">
-        <v>-0.02594716101884842</v>
+        <v>-0.02598768845200539</v>
       </c>
       <c r="BR2">
-        <v>-0.01175265479832888</v>
+        <v>-0.01230778638273478</v>
       </c>
       <c r="BS2">
-        <v>-0.01259993109852076</v>
+        <v>-0.0131840230897069</v>
       </c>
       <c r="BT2">
-        <v>-0.006164783146232367</v>
+        <v>-0.006821729242801666</v>
       </c>
       <c r="BU2">
-        <v>-0.02397278696298599</v>
+        <v>-0.02428303472697735</v>
       </c>
       <c r="BV2">
-        <v>-0.1291004717350006</v>
+        <v>-0.1291248649358749</v>
       </c>
       <c r="BW2">
-        <v>-0.001958029111847281</v>
+        <v>-0.00289046042598784</v>
       </c>
       <c r="BX2">
-        <v>-0.1301795691251755</v>
+        <v>-0.1305456161499023</v>
       </c>
       <c r="BY2">
-        <v>0.003596417373046279</v>
+        <v>0.003771805902943015</v>
       </c>
       <c r="BZ2">
-        <v>0.02910070493817329</v>
+        <v>0.02559909783303738</v>
       </c>
       <c r="CA2">
-        <v>-0.01366866007447243</v>
+        <v>-0.01281201187521219</v>
       </c>
       <c r="CB2">
-        <v>-0.01829882711172104</v>
+        <v>-0.0218636728823185</v>
       </c>
       <c r="CC2">
-        <v>-0.0001250545319635421</v>
+        <v>-0.001041621551848948</v>
       </c>
       <c r="CD2">
-        <v>0.01102506369352341</v>
+        <v>0.009746911004185677</v>
       </c>
       <c r="CE2">
-        <v>-0.0954596996307373</v>
+        <v>-0.09809612482786179</v>
       </c>
       <c r="CF2">
-        <v>0.02641492523252964</v>
+        <v>0.02629402093589306</v>
       </c>
       <c r="CG2">
-        <v>-0.05417183041572571</v>
+        <v>-0.04961508885025978</v>
       </c>
       <c r="CH2">
-        <v>0.03407642245292664</v>
+        <v>0.03274670615792274</v>
       </c>
       <c r="CI2">
-        <v>-0.03478081896901131</v>
+        <v>-0.03576839342713356</v>
       </c>
       <c r="CJ2">
-        <v>-0.09215664863586426</v>
+        <v>-0.090974360704422</v>
       </c>
       <c r="CK2">
-        <v>-0.03048518858850002</v>
+        <v>-0.03071782924234867</v>
       </c>
       <c r="CL2">
-        <v>0.001952119288034737</v>
+        <v>0.001450511510483921</v>
       </c>
       <c r="CM2">
-        <v>0.1015013083815575</v>
+        <v>0.09906086325645447</v>
       </c>
       <c r="CN2">
-        <v>0.0009960890747606754</v>
+        <v>-0.0001958287466550246</v>
       </c>
       <c r="CO2">
-        <v>0.003361762966960669</v>
+        <v>0.002443077508360147</v>
       </c>
       <c r="CP2">
-        <v>0.08104489743709564</v>
+        <v>0.08345917612314224</v>
       </c>
       <c r="CQ2">
-        <v>0.006838593166321516</v>
+        <v>0.008296413347125053</v>
       </c>
       <c r="CR2">
-        <v>0.002420692471787333</v>
+        <v>0.007091196719557047</v>
       </c>
       <c r="CS2">
-        <v>0.00173489551525563</v>
+        <v>0.001086614443920553</v>
       </c>
       <c r="CT2">
-        <v>0.003087832359597087</v>
+        <v>0.002129028551280499</v>
       </c>
       <c r="CU2">
-        <v>0.008106214925646782</v>
+        <v>0.007414600346237421</v>
       </c>
       <c r="CV2">
-        <v>-0.000181545881787315</v>
+        <v>0.001557028153911233</v>
       </c>
       <c r="CW2">
-        <v>0.01650216244161129</v>
+        <v>0.0142676867544651</v>
       </c>
       <c r="CX2">
-        <v>0.01165553741157055</v>
+        <v>0.01163561455905437</v>
       </c>
       <c r="CY2">
-        <v>0.04501563683152199</v>
+        <v>0.0462602972984314</v>
       </c>
       <c r="CZ2">
-        <v>-0.0002391513553448021</v>
+        <v>-0.0007646685116924345</v>
       </c>
       <c r="DA2">
-        <v>0.01810257323086262</v>
+        <v>0.02096315659582615</v>
       </c>
       <c r="DB2">
-        <v>0.00570659339427948</v>
+        <v>0.007057895418256521</v>
       </c>
       <c r="DC2">
-        <v>-0.007514996454119682</v>
+        <v>-0.007100923918187618</v>
       </c>
       <c r="DD2">
-        <v>-0.1030439138412476</v>
+        <v>-0.1064546704292297</v>
       </c>
       <c r="DE2">
-        <v>-0.003121041459962726</v>
+        <v>-0.003956398461014032</v>
       </c>
       <c r="DF2">
-        <v>0.09589903801679611</v>
+        <v>0.09617527574300766</v>
       </c>
       <c r="DG2">
-        <v>-0.005944234319031239</v>
+        <v>-0.007852926850318909</v>
       </c>
       <c r="DH2">
-        <v>0.008894758298993111</v>
+        <v>0.008259793743491173</v>
       </c>
       <c r="DI2">
-        <v>0.002531218808144331</v>
+        <v>0.004842762835323811</v>
       </c>
       <c r="DJ2">
-        <v>0.0002384129475103691</v>
+        <v>-0.001155066303908825</v>
       </c>
       <c r="DK2">
-        <v>0.0007729933713562787</v>
+        <v>0.001427055569365621</v>
       </c>
       <c r="DL2">
-        <v>-0.004810352344065905</v>
+        <v>-0.001746860565617681</v>
       </c>
       <c r="DM2">
-        <v>-0.0267126839607954</v>
+        <v>-0.02515989169478416</v>
       </c>
       <c r="DN2">
-        <v>-0.01154617499560118</v>
+        <v>-0.01232376229017973</v>
       </c>
       <c r="DO2">
-        <v>-0.07996776700019836</v>
+        <v>-0.07905498147010803</v>
       </c>
       <c r="DP2">
-        <v>-0.004740641918033361</v>
+        <v>-0.005217941012233496</v>
       </c>
       <c r="DQ2">
-        <v>-0.002879821229726076</v>
+        <v>-0.004169925581663847</v>
       </c>
       <c r="DR2">
-        <v>0.008709177374839783</v>
+        <v>0.007593311369419098</v>
       </c>
       <c r="DS2">
-        <v>-0.1128319054841995</v>
+        <v>-0.1134755089879036</v>
       </c>
       <c r="DT2">
-        <v>-0.006577144376933575</v>
+        <v>-0.005468939431011677</v>
       </c>
       <c r="DU2">
-        <v>0.09002017229795456</v>
+        <v>0.09033992141485214</v>
       </c>
       <c r="DV2">
-        <v>-0.005568777676671743</v>
+        <v>-0.004250289406627417</v>
       </c>
       <c r="DW2">
-        <v>-0.0005770256975665689</v>
+        <v>-0.0007757575949653983</v>
       </c>
       <c r="DX2">
-        <v>0.03690317645668983</v>
+        <v>0.03594136983156204</v>
       </c>
       <c r="DY2">
-        <v>-0.02656105719506741</v>
+        <v>-0.02553892321884632</v>
       </c>
       <c r="DZ2">
-        <v>0.01073335018008947</v>
+        <v>0.009746579453349113</v>
       </c>
       <c r="EA2">
-        <v>0.06269102543592453</v>
+        <v>0.06310637295246124</v>
       </c>
       <c r="EB2">
-        <v>0.07644352316856384</v>
+        <v>0.07567569613456726</v>
       </c>
       <c r="EC2">
-        <v>-0.002255517989397049</v>
+        <v>-0.005697369109839201</v>
       </c>
       <c r="ED2">
-        <v>0.05692115053534508</v>
+        <v>0.05607155710458755</v>
       </c>
       <c r="EE2">
-        <v>0.0103052044287324</v>
+        <v>0.009493310935795307</v>
       </c>
       <c r="EF2">
-        <v>0.2011218667030334</v>
+        <v>0.198346734046936</v>
       </c>
       <c r="EG2">
-        <v>0.008354260586202145</v>
+        <v>0.009787941351532936</v>
       </c>
       <c r="EH2">
-        <v>-0.01668266952037811</v>
+        <v>-0.01620480790734291</v>
       </c>
       <c r="EI2">
-        <v>-0.04789284244179726</v>
+        <v>-0.05128444358706474</v>
       </c>
       <c r="EJ2">
-        <v>-0.1311722099781036</v>
+        <v>-0.1311725676059723</v>
       </c>
       <c r="EK2">
-        <v>0.002570385579019785</v>
+        <v>0.001515225972980261</v>
       </c>
       <c r="EL2">
-        <v>-0.003971858881413937</v>
+        <v>-0.004871245939284563</v>
       </c>
       <c r="EM2">
-        <v>-0.05190401524305344</v>
+        <v>-0.051213338971138</v>
       </c>
       <c r="EN2">
-        <v>0.08533784747123718</v>
+        <v>0.08292453736066818</v>
       </c>
       <c r="EO2">
-        <v>0.01950146071612835</v>
+        <v>0.02377004735171795</v>
       </c>
       <c r="EP2">
-        <v>0.08108741044998169</v>
+        <v>0.07646404951810837</v>
       </c>
       <c r="EQ2">
-        <v>0.07018592953681946</v>
+        <v>0.06997513025999069</v>
       </c>
       <c r="ER2">
-        <v>-0.003393702441826463</v>
+        <v>-0.001011588727124035</v>
       </c>
       <c r="ES2">
-        <v>-0.01158821862190962</v>
+        <v>-0.01289812196046114</v>
       </c>
       <c r="ET2">
-        <v>-0.1130279898643494</v>
+        <v>-0.1140180081129074</v>
       </c>
       <c r="EU2">
-        <v>0.02396208979189396</v>
+        <v>0.02316679060459137</v>
       </c>
       <c r="EV2">
-        <v>0.003439156571403146</v>
+        <v>0.003535035531967878</v>
       </c>
       <c r="EW2">
-        <v>0.07675167918205261</v>
+        <v>0.07655872404575348</v>
       </c>
       <c r="EX2">
-        <v>-0.1310218125581741</v>
+        <v>-0.1294651031494141</v>
       </c>
       <c r="EY2">
-        <v>-0.01225885096937418</v>
+        <v>-0.01296163722872734</v>
       </c>
       <c r="EZ2">
-        <v>-0.07359319925308228</v>
+        <v>-0.07429734617471695</v>
       </c>
       <c r="FA2">
-        <v>0.01005263160914183</v>
+        <v>0.00981602631509304</v>
       </c>
       <c r="FB2">
-        <v>0.00601036986336112</v>
+        <v>0.004931135568767786</v>
       </c>
       <c r="FC2">
-        <v>-0.03828052058815956</v>
+        <v>-0.03939196467399597</v>
       </c>
       <c r="FD2">
-        <v>-0.002878559287637472</v>
+        <v>-0.002707610838115215</v>
       </c>
       <c r="FE2">
-        <v>-0.01575719565153122</v>
+        <v>-0.01578757725656033</v>
       </c>
       <c r="FF2">
-        <v>-0.05661181733012199</v>
+        <v>-0.05775677785277367</v>
       </c>
       <c r="FG2">
-        <v>-0.1131875813007355</v>
+        <v>-0.1140238717198372</v>
       </c>
       <c r="FH2">
-        <v>0.001620223512873054</v>
+        <v>0.0007524780812673271</v>
       </c>
       <c r="FI2">
-        <v>0.06843245029449463</v>
+        <v>0.06800639629364014</v>
       </c>
       <c r="FJ2">
-        <v>0.02588353678584099</v>
+        <v>0.02805924601852894</v>
       </c>
       <c r="FK2">
-        <v>0.1142488867044449</v>
+        <v>0.1077495589852333</v>
       </c>
       <c r="FL2">
-        <v>0.1144017428159714</v>
+        <v>0.1142168045043945</v>
       </c>
       <c r="FM2">
-        <v>0.04864797741174698</v>
+        <v>0.04993298649787903</v>
       </c>
       <c r="FN2">
-        <v>0.05778728052973747</v>
+        <v>0.05920081585645676</v>
       </c>
       <c r="FO2">
-        <v>-0.008362520486116409</v>
+        <v>-0.009980637580156326</v>
       </c>
       <c r="FP2">
-        <v>0.01510036084800959</v>
+        <v>0.01683603413403034</v>
       </c>
       <c r="FQ2">
-        <v>0.004667459987103939</v>
+        <v>0.003974964376538992</v>
       </c>
       <c r="FR2">
-        <v>-0.002832039725035429</v>
+        <v>-0.003962218761444092</v>
       </c>
       <c r="FS2">
-        <v>0.001056057284586132</v>
+        <v>0.0001494359457865357</v>
       </c>
       <c r="FT2">
-        <v>-0.002782522002235055</v>
+        <v>-0.003947162535041571</v>
       </c>
       <c r="FU2">
-        <v>-0.02958391234278679</v>
+        <v>-0.03048942983150482</v>
       </c>
       <c r="FV2">
-        <v>0.04613872990012169</v>
+        <v>0.04615028947591782</v>
       </c>
       <c r="FW2">
-        <v>0.01814260892570019</v>
+        <v>0.01736619509756565</v>
       </c>
       <c r="FX2">
-        <v>0.01109792850911617</v>
+        <v>0.005785509012639523</v>
       </c>
       <c r="FY2">
-        <v>0.002845033304765821</v>
+        <v>0.004548370372503996</v>
       </c>
       <c r="FZ2">
-        <v>0.003288103733211756</v>
+        <v>0.002841646783053875</v>
       </c>
       <c r="GA2">
-        <v>0.067855603992939</v>
+        <v>0.06902164220809937</v>
       </c>
       <c r="GB2">
-        <v>-0.00416517723351717</v>
+        <v>-0.006390385795384645</v>
       </c>
       <c r="GC2">
-        <v>-0.06187407672405243</v>
+        <v>-0.06165724992752075</v>
       </c>
       <c r="GD2">
-        <v>0.04061346501111984</v>
+        <v>0.04002723097801208</v>
       </c>
       <c r="GE2">
-        <v>0.006959598511457443</v>
+        <v>0.00621701218187809</v>
       </c>
       <c r="GF2">
-        <v>0.01690979860723019</v>
+        <v>0.01810167916119099</v>
       </c>
       <c r="GG2">
-        <v>-0.03685098886489868</v>
+        <v>-0.03782433643937111</v>
       </c>
       <c r="GH2">
-        <v>-0.01184533070772886</v>
+        <v>-0.007050103042274714</v>
       </c>
       <c r="GI2">
-        <v>-0.1483283340930939</v>
+        <v>-0.1474800854921341</v>
       </c>
       <c r="GJ2">
-        <v>0.004910484421998262</v>
+        <v>0.00535035552456975</v>
       </c>
       <c r="GK2">
-        <v>0.098533995449543</v>
+        <v>0.100232869386673</v>
       </c>
       <c r="GL2">
-        <v>0.1387324184179306</v>
+        <v>0.1407838612794876</v>
       </c>
       <c r="GM2">
-        <v>-0.05885126814246178</v>
+        <v>-0.05793050304055214</v>
       </c>
       <c r="GN2">
-        <v>0.03286158293485641</v>
+        <v>0.03279756754636765</v>
       </c>
       <c r="GO2">
-        <v>0.07397856563329697</v>
+        <v>0.07439226657152176</v>
       </c>
       <c r="GP2">
-        <v>0.007506037596613169</v>
+        <v>0.0064589180983603</v>
       </c>
       <c r="GQ2">
-        <v>-0.006799508351832628</v>
+        <v>-0.009746802970767021</v>
       </c>
       <c r="GR2">
-        <v>0.001718070358037949</v>
+        <v>0.002227968303486705</v>
       </c>
       <c r="GS2">
-        <v>-0.004471620544791222</v>
+        <v>-0.008753083646297455</v>
       </c>
       <c r="GT2">
-        <v>-0.001107314485125244</v>
+        <v>-0.001769604743458331</v>
       </c>
       <c r="GU2">
-        <v>-0.007430471014231443</v>
+        <v>-0.006097924895584583</v>
       </c>
       <c r="GV2">
-        <v>0.001194868818856776</v>
+        <v>0.002267448231577873</v>
       </c>
       <c r="GW2">
-        <v>0.04286604374647141</v>
+        <v>0.04241765663027763</v>
       </c>
       <c r="GX2">
-        <v>-0.002522373804822564</v>
+        <v>-0.003157834056764841</v>
       </c>
       <c r="GY2">
-        <v>0.01372645888477564</v>
+        <v>0.01290181186050177</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PVT Bank.xlsx
+++ b/static/Models/Regression/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.008912347257137299</v>
+        <v>0.008730726316571236</v>
       </c>
       <c r="C2">
-        <v>0.09001287817955017</v>
+        <v>0.09115422517061234</v>
       </c>
       <c r="D2">
-        <v>-0.1157576963305473</v>
+        <v>-0.1145927384495735</v>
       </c>
       <c r="E2">
-        <v>0.01954446546733379</v>
+        <v>0.02071370929479599</v>
       </c>
       <c r="F2">
-        <v>-0.01161194778978825</v>
+        <v>-0.0180098470300436</v>
       </c>
       <c r="G2">
-        <v>0.003663923824205995</v>
+        <v>0.004612067714333534</v>
       </c>
       <c r="H2">
-        <v>0.004455887246876955</v>
+        <v>0.003858092008158565</v>
       </c>
       <c r="I2">
-        <v>-0.01457622181624174</v>
+        <v>-0.01393324974924326</v>
       </c>
       <c r="J2">
-        <v>-0.02876641787588596</v>
+        <v>-0.02809826098382473</v>
       </c>
       <c r="K2">
-        <v>-0.0009936938295140862</v>
+        <v>0.001730960211716592</v>
       </c>
       <c r="L2">
-        <v>-0.002292451681569219</v>
+        <v>-0.003229785477742553</v>
       </c>
       <c r="M2">
-        <v>-0.0005308776744641364</v>
+        <v>-0.002085556741803885</v>
       </c>
       <c r="N2">
-        <v>0.008591345511376858</v>
+        <v>0.005707679782062769</v>
       </c>
       <c r="O2">
-        <v>0.009760358370840549</v>
+        <v>0.007547449786216021</v>
       </c>
       <c r="P2">
-        <v>0.07611914724111557</v>
+        <v>0.07562895119190216</v>
       </c>
       <c r="Q2">
-        <v>0.08863002061843872</v>
+        <v>0.08632736653089523</v>
       </c>
       <c r="R2">
-        <v>0.001154310302808881</v>
+        <v>-0.000133869718411006</v>
       </c>
       <c r="S2">
-        <v>0.0149708166718483</v>
+        <v>0.0146319605410099</v>
       </c>
       <c r="T2">
-        <v>-0.09406274557113647</v>
+        <v>-0.09487386047840118</v>
       </c>
       <c r="U2">
-        <v>0.06680690497159958</v>
+        <v>0.06554386764764786</v>
       </c>
       <c r="V2">
-        <v>0.002881409600377083</v>
+        <v>-5.761410648119636E-05</v>
       </c>
       <c r="W2">
-        <v>0.05088606476783752</v>
+        <v>0.0538584403693676</v>
       </c>
       <c r="X2">
-        <v>-0.0006839112611487508</v>
+        <v>0.003550678957253695</v>
       </c>
       <c r="Y2">
-        <v>0.05129588395357132</v>
+        <v>0.04997189715504646</v>
       </c>
       <c r="Z2">
-        <v>-0.02673980034887791</v>
+        <v>-0.02025945484638214</v>
       </c>
       <c r="AA2">
-        <v>0.01098779961466789</v>
+        <v>0.0121049927547574</v>
       </c>
       <c r="AB2">
-        <v>-0.09386701136827469</v>
+        <v>-0.09282565116882324</v>
       </c>
       <c r="AC2">
-        <v>0.04056751355528831</v>
+        <v>0.04451829195022583</v>
       </c>
       <c r="AD2">
-        <v>-0.02132350020110607</v>
+        <v>-0.02122215926647186</v>
       </c>
       <c r="AE2">
-        <v>0.06686430424451828</v>
+        <v>0.06642445921897888</v>
       </c>
       <c r="AF2">
-        <v>0.002979957964271307</v>
+        <v>0.003834598930552602</v>
       </c>
       <c r="AG2">
-        <v>-0.06951190531253815</v>
+        <v>-0.06443187594413757</v>
       </c>
       <c r="AH2">
-        <v>0.1604640632867813</v>
+        <v>0.1613850593566895</v>
       </c>
       <c r="AI2">
-        <v>-0.03975144028663635</v>
+        <v>-0.02901872806251049</v>
       </c>
       <c r="AJ2">
-        <v>-0.0002245131618110463</v>
+        <v>0.003478218801319599</v>
       </c>
       <c r="AK2">
-        <v>0.00181283603888005</v>
+        <v>0.005154726561158895</v>
       </c>
       <c r="AL2">
-        <v>-0.01297228690236807</v>
+        <v>-0.01526788622140884</v>
       </c>
       <c r="AM2">
-        <v>-0.05758816376328468</v>
+        <v>-0.05662261322140694</v>
       </c>
       <c r="AN2">
-        <v>-0.07436428219079971</v>
+        <v>-0.07264001667499542</v>
       </c>
       <c r="AO2">
-        <v>0.01186611037701368</v>
+        <v>0.01112288516014814</v>
       </c>
       <c r="AP2">
-        <v>0.03636026382446289</v>
+        <v>0.03477004542946815</v>
       </c>
       <c r="AQ2">
-        <v>0.001429953728802502</v>
+        <v>0.001979815540835261</v>
       </c>
       <c r="AR2">
-        <v>0.03539769724011421</v>
+        <v>0.03470085188746452</v>
       </c>
       <c r="AS2">
-        <v>-0.03079742938280106</v>
+        <v>-0.02966308034956455</v>
       </c>
       <c r="AT2">
-        <v>0.05403299257159233</v>
+        <v>0.05434344708919525</v>
       </c>
       <c r="AU2">
-        <v>-0.02467884309589863</v>
+        <v>-0.02309603989124298</v>
       </c>
       <c r="AV2">
-        <v>0.02333281375467777</v>
+        <v>0.02211680449545383</v>
       </c>
       <c r="AW2">
-        <v>-0.02744620107114315</v>
+        <v>-0.0276402160525322</v>
       </c>
       <c r="AX2">
-        <v>-0.04982706904411316</v>
+        <v>-0.04870644584298134</v>
       </c>
       <c r="AY2">
-        <v>0.09409299492835999</v>
+        <v>0.1015668660402298</v>
       </c>
       <c r="AZ2">
-        <v>0.1003641337156296</v>
+        <v>0.1124609336256981</v>
       </c>
       <c r="BA2">
-        <v>-0.0198576133698225</v>
+        <v>-0.02482743188738823</v>
       </c>
       <c r="BB2">
-        <v>-0.1559108346700668</v>
+        <v>-0.1576780676841736</v>
       </c>
       <c r="BC2">
-        <v>-0.002719825832173228</v>
+        <v>-0.001054906053468585</v>
       </c>
       <c r="BD2">
-        <v>-0.03788723424077034</v>
+        <v>-0.03820107877254486</v>
       </c>
       <c r="BE2">
-        <v>0.00629328191280365</v>
+        <v>0.004769943654537201</v>
       </c>
       <c r="BF2">
-        <v>0.01570499874651432</v>
+        <v>0.0135591235011816</v>
       </c>
       <c r="BG2">
-        <v>-0.02853358723223209</v>
+        <v>-0.02831800282001495</v>
       </c>
       <c r="BH2">
-        <v>0.004087949637323618</v>
+        <v>0.004537857603281736</v>
       </c>
       <c r="BI2">
-        <v>0.0462367981672287</v>
+        <v>0.04554091393947601</v>
       </c>
       <c r="BJ2">
-        <v>-0.08941188454627991</v>
+        <v>-0.08152243494987488</v>
       </c>
       <c r="BK2">
-        <v>0.005439768545329571</v>
+        <v>0.006337102968245745</v>
       </c>
       <c r="BL2">
-        <v>0.007810626644641161</v>
+        <v>0.007826314307749271</v>
       </c>
       <c r="BM2">
-        <v>0.07735630124807358</v>
+        <v>0.07372491806745529</v>
       </c>
       <c r="BN2">
-        <v>-0.07346749305725098</v>
+        <v>-0.07572564482688904</v>
       </c>
       <c r="BO2">
-        <v>0.1687601655721664</v>
+        <v>0.1686519980430603</v>
       </c>
       <c r="BP2">
-        <v>0.01653748005628586</v>
+        <v>0.01758219674229622</v>
       </c>
       <c r="BQ2">
-        <v>-0.02598768845200539</v>
+        <v>-0.02324715256690979</v>
       </c>
       <c r="BR2">
-        <v>-0.01230778638273478</v>
+        <v>-0.01020338945090771</v>
       </c>
       <c r="BS2">
-        <v>-0.0131840230897069</v>
+        <v>-0.008504751138389111</v>
       </c>
       <c r="BT2">
-        <v>-0.006821729242801666</v>
+        <v>-0.004692124202847481</v>
       </c>
       <c r="BU2">
-        <v>-0.02428303472697735</v>
+        <v>-0.0248727835714817</v>
       </c>
       <c r="BV2">
-        <v>-0.1291248649358749</v>
+        <v>-0.1276766210794449</v>
       </c>
       <c r="BW2">
-        <v>-0.00289046042598784</v>
+        <v>-0.005496164783835411</v>
       </c>
       <c r="BX2">
-        <v>-0.1305456161499023</v>
+        <v>-0.1310511082410812</v>
       </c>
       <c r="BY2">
-        <v>0.003771805902943015</v>
+        <v>0.008053845725953579</v>
       </c>
       <c r="BZ2">
-        <v>0.02559909783303738</v>
+        <v>0.02774861641228199</v>
       </c>
       <c r="CA2">
-        <v>-0.01281201187521219</v>
+        <v>-0.01250012312084436</v>
       </c>
       <c r="CB2">
-        <v>-0.0218636728823185</v>
+        <v>-0.02092388644814491</v>
       </c>
       <c r="CC2">
-        <v>-0.001041621551848948</v>
+        <v>-0.0007356544374488294</v>
       </c>
       <c r="CD2">
-        <v>0.009746911004185677</v>
+        <v>0.01012103538960218</v>
       </c>
       <c r="CE2">
-        <v>-0.09809612482786179</v>
+        <v>-0.09848559647798538</v>
       </c>
       <c r="CF2">
-        <v>0.02629402093589306</v>
+        <v>0.02563721127808094</v>
       </c>
       <c r="CG2">
-        <v>-0.04961508885025978</v>
+        <v>-0.05464558675885201</v>
       </c>
       <c r="CH2">
-        <v>0.03274670615792274</v>
+        <v>0.0333525650203228</v>
       </c>
       <c r="CI2">
-        <v>-0.03576839342713356</v>
+        <v>-0.03617532551288605</v>
       </c>
       <c r="CJ2">
-        <v>-0.090974360704422</v>
+        <v>-0.09000217169523239</v>
       </c>
       <c r="CK2">
-        <v>-0.03071782924234867</v>
+        <v>-0.03264310210943222</v>
       </c>
       <c r="CL2">
-        <v>0.001450511510483921</v>
+        <v>0.000923571758903563</v>
       </c>
       <c r="CM2">
-        <v>0.09906086325645447</v>
+        <v>0.0992947593331337</v>
       </c>
       <c r="CN2">
-        <v>-0.0001958287466550246</v>
+        <v>6.024515823810361E-05</v>
       </c>
       <c r="CO2">
-        <v>0.002443077508360147</v>
+        <v>0.002101235324516892</v>
       </c>
       <c r="CP2">
-        <v>0.08345917612314224</v>
+        <v>0.0811169296503067</v>
       </c>
       <c r="CQ2">
-        <v>0.008296413347125053</v>
+        <v>0.005031817592680454</v>
       </c>
       <c r="CR2">
-        <v>0.007091196719557047</v>
+        <v>0.003409914672374725</v>
       </c>
       <c r="CS2">
-        <v>0.001086614443920553</v>
+        <v>0.001137376413680613</v>
       </c>
       <c r="CT2">
-        <v>0.002129028551280499</v>
+        <v>0.002386759733781219</v>
       </c>
       <c r="CU2">
-        <v>0.007414600346237421</v>
+        <v>0.007369323633611202</v>
       </c>
       <c r="CV2">
-        <v>0.001557028153911233</v>
+        <v>-0.0004838183522224426</v>
       </c>
       <c r="CW2">
-        <v>0.0142676867544651</v>
+        <v>0.008233307860791683</v>
       </c>
       <c r="CX2">
-        <v>0.01163561455905437</v>
+        <v>0.008476118557155132</v>
       </c>
       <c r="CY2">
-        <v>0.0462602972984314</v>
+        <v>0.04606672003865242</v>
       </c>
       <c r="CZ2">
-        <v>-0.0007646685116924345</v>
+        <v>0.0007100194343365729</v>
       </c>
       <c r="DA2">
-        <v>0.02096315659582615</v>
+        <v>0.02148720622062683</v>
       </c>
       <c r="DB2">
-        <v>0.007057895418256521</v>
+        <v>0.01130615454167128</v>
       </c>
       <c r="DC2">
-        <v>-0.007100923918187618</v>
+        <v>-0.008430046960711479</v>
       </c>
       <c r="DD2">
-        <v>-0.1064546704292297</v>
+        <v>-0.1075947135686874</v>
       </c>
       <c r="DE2">
-        <v>-0.003956398461014032</v>
+        <v>-0.004038923420011997</v>
       </c>
       <c r="DF2">
-        <v>0.09617527574300766</v>
+        <v>0.09719847142696381</v>
       </c>
       <c r="DG2">
-        <v>-0.007852926850318909</v>
+        <v>-0.006762610748410225</v>
       </c>
       <c r="DH2">
-        <v>0.008259793743491173</v>
+        <v>0.01195133104920387</v>
       </c>
       <c r="DI2">
-        <v>0.004842762835323811</v>
+        <v>0.00464040320366621</v>
       </c>
       <c r="DJ2">
-        <v>-0.001155066303908825</v>
+        <v>-0.001708715106360614</v>
       </c>
       <c r="DK2">
-        <v>0.001427055569365621</v>
+        <v>0.004423533566296101</v>
       </c>
       <c r="DL2">
-        <v>-0.001746860565617681</v>
+        <v>-0.005691117607057095</v>
       </c>
       <c r="DM2">
-        <v>-0.02515989169478416</v>
+        <v>-0.02645647712051868</v>
       </c>
       <c r="DN2">
-        <v>-0.01232376229017973</v>
+        <v>-0.01245580986142159</v>
       </c>
       <c r="DO2">
-        <v>-0.07905498147010803</v>
+        <v>-0.07815319299697876</v>
       </c>
       <c r="DP2">
-        <v>-0.005217941012233496</v>
+        <v>-0.004568069241940975</v>
       </c>
       <c r="DQ2">
-        <v>-0.004169925581663847</v>
+        <v>-0.004350874572992325</v>
       </c>
       <c r="DR2">
-        <v>0.007593311369419098</v>
+        <v>0.003090257756412029</v>
       </c>
       <c r="DS2">
-        <v>-0.1134755089879036</v>
+        <v>-0.1128670051693916</v>
       </c>
       <c r="DT2">
-        <v>-0.005468939431011677</v>
+        <v>-0.007303747348487377</v>
       </c>
       <c r="DU2">
-        <v>0.09033992141485214</v>
+        <v>0.08988439291715622</v>
       </c>
       <c r="DV2">
-        <v>-0.004250289406627417</v>
+        <v>-0.001480501960031688</v>
       </c>
       <c r="DW2">
-        <v>-0.0007757575949653983</v>
+        <v>0.001600773422978818</v>
       </c>
       <c r="DX2">
-        <v>0.03594136983156204</v>
+        <v>0.03604970872402191</v>
       </c>
       <c r="DY2">
-        <v>-0.02553892321884632</v>
+        <v>-0.02450988814234734</v>
       </c>
       <c r="DZ2">
-        <v>0.009746579453349113</v>
+        <v>0.01156310737133026</v>
       </c>
       <c r="EA2">
-        <v>0.06310637295246124</v>
+        <v>0.06480147689580917</v>
       </c>
       <c r="EB2">
-        <v>0.07567569613456726</v>
+        <v>0.07517203688621521</v>
       </c>
       <c r="EC2">
-        <v>-0.005697369109839201</v>
+        <v>-0.004801084287464619</v>
       </c>
       <c r="ED2">
-        <v>0.05607155710458755</v>
+        <v>0.0559663288295269</v>
       </c>
       <c r="EE2">
-        <v>0.009493310935795307</v>
+        <v>0.009496058337390423</v>
       </c>
       <c r="EF2">
-        <v>0.198346734046936</v>
+        <v>0.1987241059541702</v>
       </c>
       <c r="EG2">
-        <v>0.009787941351532936</v>
+        <v>0.01148286461830139</v>
       </c>
       <c r="EH2">
-        <v>-0.01620480790734291</v>
+        <v>-0.01985433138906956</v>
       </c>
       <c r="EI2">
-        <v>-0.05128444358706474</v>
+        <v>-0.04957960173487663</v>
       </c>
       <c r="EJ2">
-        <v>-0.1311725676059723</v>
+        <v>-0.1327641159296036</v>
       </c>
       <c r="EK2">
-        <v>0.001515225972980261</v>
+        <v>0.001485045533627272</v>
       </c>
       <c r="EL2">
-        <v>-0.004871245939284563</v>
+        <v>-0.004965966567397118</v>
       </c>
       <c r="EM2">
-        <v>-0.051213338971138</v>
+        <v>-0.05018976330757141</v>
       </c>
       <c r="EN2">
-        <v>0.08292453736066818</v>
+        <v>0.08180595189332962</v>
       </c>
       <c r="EO2">
-        <v>0.02377004735171795</v>
+        <v>0.0212837029248476</v>
       </c>
       <c r="EP2">
-        <v>0.07646404951810837</v>
+        <v>0.07814562320709229</v>
       </c>
       <c r="EQ2">
-        <v>0.06997513025999069</v>
+        <v>0.07360418885946274</v>
       </c>
       <c r="ER2">
-        <v>-0.001011588727124035</v>
+        <v>-0.0007909460109658539</v>
       </c>
       <c r="ES2">
-        <v>-0.01289812196046114</v>
+        <v>-0.0125615494325757</v>
       </c>
       <c r="ET2">
-        <v>-0.1140180081129074</v>
+        <v>-0.114555649459362</v>
       </c>
       <c r="EU2">
-        <v>0.02316679060459137</v>
+        <v>0.01957490481436253</v>
       </c>
       <c r="EV2">
-        <v>0.003535035531967878</v>
+        <v>0.004330916795879602</v>
       </c>
       <c r="EW2">
-        <v>0.07655872404575348</v>
+        <v>0.08158616721630096</v>
       </c>
       <c r="EX2">
-        <v>-0.1294651031494141</v>
+        <v>-0.1283580511808395</v>
       </c>
       <c r="EY2">
-        <v>-0.01296163722872734</v>
+        <v>-0.01221442501991987</v>
       </c>
       <c r="EZ2">
-        <v>-0.07429734617471695</v>
+        <v>-0.07221122086048126</v>
       </c>
       <c r="FA2">
-        <v>0.00981602631509304</v>
+        <v>0.008806176483631134</v>
       </c>
       <c r="FB2">
-        <v>0.004931135568767786</v>
+        <v>0.004748237319290638</v>
       </c>
       <c r="FC2">
-        <v>-0.03939196467399597</v>
+        <v>-0.03824839740991592</v>
       </c>
       <c r="FD2">
-        <v>-0.002707610838115215</v>
+        <v>-0.002204585587605834</v>
       </c>
       <c r="FE2">
-        <v>-0.01578757725656033</v>
+        <v>-0.01479449868202209</v>
       </c>
       <c r="FF2">
-        <v>-0.05775677785277367</v>
+        <v>-0.06077960133552551</v>
       </c>
       <c r="FG2">
-        <v>-0.1140238717198372</v>
+        <v>-0.1151159182190895</v>
       </c>
       <c r="FH2">
-        <v>0.0007524780812673271</v>
+        <v>-0.002836221596226096</v>
       </c>
       <c r="FI2">
-        <v>0.06800639629364014</v>
+        <v>0.06647079437971115</v>
       </c>
       <c r="FJ2">
-        <v>0.02805924601852894</v>
+        <v>0.0277799628674984</v>
       </c>
       <c r="FK2">
-        <v>0.1077495589852333</v>
+        <v>0.1096565574407578</v>
       </c>
       <c r="FL2">
-        <v>0.1142168045043945</v>
+        <v>0.1176994070410728</v>
       </c>
       <c r="FM2">
-        <v>0.04993298649787903</v>
+        <v>0.05115235596895218</v>
       </c>
       <c r="FN2">
-        <v>0.05920081585645676</v>
+        <v>0.05956831574440002</v>
       </c>
       <c r="FO2">
-        <v>-0.009980637580156326</v>
+        <v>-0.01014938205480576</v>
       </c>
       <c r="FP2">
-        <v>0.01683603413403034</v>
+        <v>0.01647012494504452</v>
       </c>
       <c r="FQ2">
-        <v>0.003974964376538992</v>
+        <v>0.003872908418998122</v>
       </c>
       <c r="FR2">
-        <v>-0.003962218761444092</v>
+        <v>-0.004169325809925795</v>
       </c>
       <c r="FS2">
-        <v>0.0001494359457865357</v>
+        <v>-0.0002307783433934674</v>
       </c>
       <c r="FT2">
-        <v>-0.003947162535041571</v>
+        <v>-0.004005984403192997</v>
       </c>
       <c r="FU2">
-        <v>-0.03048942983150482</v>
+        <v>-0.03070557489991188</v>
       </c>
       <c r="FV2">
-        <v>0.04615028947591782</v>
+        <v>0.04474386945366859</v>
       </c>
       <c r="FW2">
-        <v>0.01736619509756565</v>
+        <v>0.01636986061930656</v>
       </c>
       <c r="FX2">
-        <v>0.005785509012639523</v>
+        <v>0.004583094269037247</v>
       </c>
       <c r="FY2">
-        <v>0.004548370372503996</v>
+        <v>0.006943722255527973</v>
       </c>
       <c r="FZ2">
-        <v>0.002841646783053875</v>
+        <v>0.004248161800205708</v>
       </c>
       <c r="GA2">
-        <v>0.06902164220809937</v>
+        <v>0.06878302991390228</v>
       </c>
       <c r="GB2">
-        <v>-0.006390385795384645</v>
+        <v>-0.004776424262672663</v>
       </c>
       <c r="GC2">
-        <v>-0.06165724992752075</v>
+        <v>-0.05915363132953644</v>
       </c>
       <c r="GD2">
-        <v>0.04002723097801208</v>
+        <v>0.03555675223469734</v>
       </c>
       <c r="GE2">
-        <v>0.00621701218187809</v>
+        <v>0.006149988621473312</v>
       </c>
       <c r="GF2">
-        <v>0.01810167916119099</v>
+        <v>0.01607812568545341</v>
       </c>
       <c r="GG2">
-        <v>-0.03782433643937111</v>
+        <v>-0.03836337476968765</v>
       </c>
       <c r="GH2">
-        <v>-0.007050103042274714</v>
+        <v>-0.002262700814753771</v>
       </c>
       <c r="GI2">
-        <v>-0.1474800854921341</v>
+        <v>-0.1456198692321777</v>
       </c>
       <c r="GJ2">
-        <v>0.00535035552456975</v>
+        <v>0.005867809057235718</v>
       </c>
       <c r="GK2">
-        <v>0.100232869386673</v>
+        <v>0.09793225675821304</v>
       </c>
       <c r="GL2">
-        <v>0.1407838612794876</v>
+        <v>0.1412431746721268</v>
       </c>
       <c r="GM2">
-        <v>-0.05793050304055214</v>
+        <v>-0.05849829688668251</v>
       </c>
       <c r="GN2">
-        <v>0.03279756754636765</v>
+        <v>0.04058502614498138</v>
       </c>
       <c r="GO2">
-        <v>0.07439226657152176</v>
+        <v>0.0736006423830986</v>
       </c>
       <c r="GP2">
-        <v>0.0064589180983603</v>
+        <v>0.006253616418689489</v>
       </c>
       <c r="GQ2">
-        <v>-0.009746802970767021</v>
+        <v>-0.005640765186399221</v>
       </c>
       <c r="GR2">
-        <v>0.002227968303486705</v>
+        <v>0.00246413447894156</v>
       </c>
       <c r="GS2">
-        <v>-0.008753083646297455</v>
+        <v>-0.007099822163581848</v>
       </c>
       <c r="GT2">
-        <v>-0.001769604743458331</v>
+        <v>-0.001607065903954208</v>
       </c>
       <c r="GU2">
-        <v>-0.006097924895584583</v>
+        <v>-0.006244056392461061</v>
       </c>
       <c r="GV2">
-        <v>0.002267448231577873</v>
+        <v>0.00358665524981916</v>
       </c>
       <c r="GW2">
-        <v>0.04241765663027763</v>
+        <v>0.04522741958498955</v>
       </c>
       <c r="GX2">
-        <v>-0.003157834056764841</v>
+        <v>-0.002781670773401856</v>
       </c>
       <c r="GY2">
-        <v>0.01290181186050177</v>
+        <v>0.01261224318295717</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PVT Bank.xlsx
+++ b/static/Models/Regression/Equation/PVT Bank.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.008730726316571236</v>
+        <v>0.007895756512880325</v>
       </c>
       <c r="C2">
-        <v>0.09115422517061234</v>
+        <v>0.09104790538549423</v>
       </c>
       <c r="D2">
-        <v>-0.1145927384495735</v>
+        <v>-0.1081131547689438</v>
       </c>
       <c r="E2">
-        <v>0.02071370929479599</v>
+        <v>0.02089228667318821</v>
       </c>
       <c r="F2">
-        <v>-0.0180098470300436</v>
+        <v>-0.01650369353592396</v>
       </c>
       <c r="G2">
-        <v>0.004612067714333534</v>
+        <v>0.005724574439227581</v>
       </c>
       <c r="H2">
-        <v>0.003858092008158565</v>
+        <v>0.007565540727227926</v>
       </c>
       <c r="I2">
-        <v>-0.01393324974924326</v>
+        <v>-0.01208308525383472</v>
       </c>
       <c r="J2">
-        <v>-0.02809826098382473</v>
+        <v>-0.03086661361157894</v>
       </c>
       <c r="K2">
-        <v>0.001730960211716592</v>
+        <v>-0.006291120313107967</v>
       </c>
       <c r="L2">
-        <v>-0.003229785477742553</v>
+        <v>-0.002293584635481238</v>
       </c>
       <c r="M2">
-        <v>-0.002085556741803885</v>
+        <v>0.002412497065961361</v>
       </c>
       <c r="N2">
-        <v>0.005707679782062769</v>
+        <v>0.002144936705008149</v>
       </c>
       <c r="O2">
-        <v>0.007547449786216021</v>
+        <v>0.01202328596264124</v>
       </c>
       <c r="P2">
-        <v>0.07562895119190216</v>
+        <v>0.0733623206615448</v>
       </c>
       <c r="Q2">
-        <v>0.08632736653089523</v>
+        <v>0.09626709669828415</v>
       </c>
       <c r="R2">
-        <v>-0.000133869718411006</v>
+        <v>-0.003344329772517085</v>
       </c>
       <c r="S2">
-        <v>0.0146319605410099</v>
+        <v>0.01493953075259924</v>
       </c>
       <c r="T2">
-        <v>-0.09487386047840118</v>
+        <v>-0.09313219040632248</v>
       </c>
       <c r="U2">
-        <v>0.06554386764764786</v>
+        <v>0.06185231357812881</v>
       </c>
       <c r="V2">
-        <v>-5.761410648119636E-05</v>
+        <v>0.001835766597650945</v>
       </c>
       <c r="W2">
-        <v>0.0538584403693676</v>
+        <v>0.05119701474905014</v>
       </c>
       <c r="X2">
-        <v>0.003550678957253695</v>
+        <v>0.004413501359522343</v>
       </c>
       <c r="Y2">
-        <v>0.04997189715504646</v>
+        <v>0.05249226838350296</v>
       </c>
       <c r="Z2">
-        <v>-0.02025945484638214</v>
+        <v>-0.02631471306085587</v>
       </c>
       <c r="AA2">
-        <v>0.0121049927547574</v>
+        <v>0.0131556149572134</v>
       </c>
       <c r="AB2">
-        <v>-0.09282565116882324</v>
+        <v>-0.09601081907749176</v>
       </c>
       <c r="AC2">
-        <v>0.04451829195022583</v>
+        <v>0.04725107178092003</v>
       </c>
       <c r="AD2">
-        <v>-0.02122215926647186</v>
+        <v>-0.02002532221376896</v>
       </c>
       <c r="AE2">
-        <v>0.06642445921897888</v>
+        <v>0.06598497182130814</v>
       </c>
       <c r="AF2">
-        <v>0.003834598930552602</v>
+        <v>0.002640575869008899</v>
       </c>
       <c r="AG2">
-        <v>-0.06443187594413757</v>
+        <v>-0.0521123968064785</v>
       </c>
       <c r="AH2">
-        <v>0.1613850593566895</v>
+        <v>0.1594276875257492</v>
       </c>
       <c r="AI2">
-        <v>-0.02901872806251049</v>
+        <v>-0.03005131706595421</v>
       </c>
       <c r="AJ2">
-        <v>0.003478218801319599</v>
+        <v>0.006045585498213768</v>
       </c>
       <c r="AK2">
-        <v>0.005154726561158895</v>
+        <v>0.001800014986656606</v>
       </c>
       <c r="AL2">
-        <v>-0.01526788622140884</v>
+        <v>-0.003153881523758173</v>
       </c>
       <c r="AM2">
-        <v>-0.05662261322140694</v>
+        <v>-0.05848559364676476</v>
       </c>
       <c r="AN2">
-        <v>-0.07264001667499542</v>
+        <v>-0.07164245098829269</v>
       </c>
       <c r="AO2">
-        <v>0.01112288516014814</v>
+        <v>0.01197126414626837</v>
       </c>
       <c r="AP2">
-        <v>0.03477004542946815</v>
+        <v>0.03317524120211601</v>
       </c>
       <c r="AQ2">
-        <v>0.001979815540835261</v>
+        <v>0.005774725694209337</v>
       </c>
       <c r="AR2">
-        <v>0.03470085188746452</v>
+        <v>0.041277676820755</v>
       </c>
       <c r="AS2">
-        <v>-0.02966308034956455</v>
+        <v>-0.03085625357925892</v>
       </c>
       <c r="AT2">
-        <v>0.05434344708919525</v>
+        <v>0.05392391607165337</v>
       </c>
       <c r="AU2">
-        <v>-0.02309603989124298</v>
+        <v>-0.02868974581360817</v>
       </c>
       <c r="AV2">
-        <v>0.02211680449545383</v>
+        <v>0.02190028689801693</v>
       </c>
       <c r="AW2">
-        <v>-0.0276402160525322</v>
+        <v>-0.02775230817496777</v>
       </c>
       <c r="AX2">
-        <v>-0.04870644584298134</v>
+        <v>-0.04520989581942558</v>
       </c>
       <c r="AY2">
-        <v>0.1015668660402298</v>
+        <v>0.1067518517374992</v>
       </c>
       <c r="AZ2">
-        <v>0.1124609336256981</v>
+        <v>0.1116462051868439</v>
       </c>
       <c r="BA2">
-        <v>-0.02482743188738823</v>
+        <v>-0.02133208885788918</v>
       </c>
       <c r="BB2">
-        <v>-0.1576780676841736</v>
+        <v>-0.1542114019393921</v>
       </c>
       <c r="BC2">
-        <v>-0.001054906053468585</v>
+        <v>0.001357351779006422</v>
       </c>
       <c r="BD2">
-        <v>-0.03820107877254486</v>
+        <v>-0.03671992570161819</v>
       </c>
       <c r="BE2">
-        <v>0.004769943654537201</v>
+        <v>0.004126079380512238</v>
       </c>
       <c r="BF2">
-        <v>0.0135591235011816</v>
+        <v>0.01494910474866629</v>
       </c>
       <c r="BG2">
-        <v>-0.02831800282001495</v>
+        <v>-0.02645401656627655</v>
       </c>
       <c r="BH2">
-        <v>0.004537857603281736</v>
+        <v>0.001710900804027915</v>
       </c>
       <c r="BI2">
-        <v>0.04554091393947601</v>
+        <v>0.04842134565114975</v>
       </c>
       <c r="BJ2">
-        <v>-0.08152243494987488</v>
+        <v>-0.08130475878715515</v>
       </c>
       <c r="BK2">
-        <v>0.006337102968245745</v>
+        <v>0.008385345339775085</v>
       </c>
       <c r="BL2">
-        <v>0.007826314307749271</v>
+        <v>0.005960308015346527</v>
       </c>
       <c r="BM2">
-        <v>0.07372491806745529</v>
+        <v>0.07325361669063568</v>
       </c>
       <c r="BN2">
-        <v>-0.07572564482688904</v>
+        <v>-0.08082038164138794</v>
       </c>
       <c r="BO2">
-        <v>0.1686519980430603</v>
+        <v>0.1673516929149628</v>
       </c>
       <c r="BP2">
-        <v>0.01758219674229622</v>
+        <v>0.01815762929618359</v>
       </c>
       <c r="BQ2">
-        <v>-0.02324715256690979</v>
+        <v>-0.0223381407558918</v>
       </c>
       <c r="BR2">
-        <v>-0.01020338945090771</v>
+        <v>-0.006342454347759485</v>
       </c>
       <c r="BS2">
-        <v>-0.008504751138389111</v>
+        <v>-0.003592881606891751</v>
       </c>
       <c r="BT2">
-        <v>-0.004692124202847481</v>
+        <v>-0.006787349004298449</v>
       </c>
       <c r="BU2">
-        <v>-0.0248727835714817</v>
+        <v>-0.02474040538072586</v>
       </c>
       <c r="BV2">
-        <v>-0.1276766210794449</v>
+        <v>-0.1272219270467758</v>
       </c>
       <c r="BW2">
-        <v>-0.005496164783835411</v>
+        <v>-0.0008644313202239573</v>
       </c>
       <c r="BX2">
-        <v>-0.1310511082410812</v>
+        <v>-0.1340798139572144</v>
       </c>
       <c r="BY2">
-        <v>0.008053845725953579</v>
+        <v>0.002523712581023574</v>
       </c>
       <c r="BZ2">
-        <v>0.02774861641228199</v>
+        <v>0.0256030261516571</v>
       </c>
       <c r="CA2">
-        <v>-0.01250012312084436</v>
+        <v>-0.01185858156532049</v>
       </c>
       <c r="CB2">
-        <v>-0.02092388644814491</v>
+        <v>-0.01977976225316525</v>
       </c>
       <c r="CC2">
-        <v>-0.0007356544374488294</v>
+        <v>-0.002216265769675374</v>
       </c>
       <c r="CD2">
-        <v>0.01012103538960218</v>
+        <v>4.939145219395868E-05</v>
       </c>
       <c r="CE2">
-        <v>-0.09848559647798538</v>
+        <v>-0.09769220650196075</v>
       </c>
       <c r="CF2">
-        <v>0.02563721127808094</v>
+        <v>0.02186950668692589</v>
       </c>
       <c r="CG2">
-        <v>-0.05464558675885201</v>
+        <v>-0.06273054331541061</v>
       </c>
       <c r="CH2">
-        <v>0.0333525650203228</v>
+        <v>0.03679204732179642</v>
       </c>
       <c r="CI2">
-        <v>-0.03617532551288605</v>
+        <v>-0.03415344282984734</v>
       </c>
       <c r="CJ2">
-        <v>-0.09000217169523239</v>
+        <v>-0.08161771297454834</v>
       </c>
       <c r="CK2">
-        <v>-0.03264310210943222</v>
+        <v>-0.03303707763552666</v>
       </c>
       <c r="CL2">
-        <v>0.000923571758903563</v>
+        <v>-0.0003793255600612611</v>
       </c>
       <c r="CM2">
-        <v>0.0992947593331337</v>
+        <v>0.09831248223781586</v>
       </c>
       <c r="CN2">
-        <v>6.024515823810361E-05</v>
+        <v>-0.00173098873347044</v>
       </c>
       <c r="CO2">
-        <v>0.002101235324516892</v>
+        <v>0.003820410231128335</v>
       </c>
       <c r="CP2">
-        <v>0.0811169296503067</v>
+        <v>0.09029323607683182</v>
       </c>
       <c r="CQ2">
-        <v>0.005031817592680454</v>
+        <v>0.00628617824986577</v>
       </c>
       <c r="CR2">
-        <v>0.003409914672374725</v>
+        <v>-0.008325723931193352</v>
       </c>
       <c r="CS2">
-        <v>0.001137376413680613</v>
+        <v>0.002286989707499743</v>
       </c>
       <c r="CT2">
-        <v>0.002386759733781219</v>
+        <v>0.000645620166324079</v>
       </c>
       <c r="CU2">
-        <v>0.007369323633611202</v>
+        <v>0.004999953787773848</v>
       </c>
       <c r="CV2">
-        <v>-0.0004838183522224426</v>
+        <v>0.001817421289160848</v>
       </c>
       <c r="CW2">
-        <v>0.008233307860791683</v>
+        <v>0.003916229587048292</v>
       </c>
       <c r="CX2">
-        <v>0.008476118557155132</v>
+        <v>0.0006925475317984819</v>
       </c>
       <c r="CY2">
-        <v>0.04606672003865242</v>
+        <v>0.04524610191583633</v>
       </c>
       <c r="CZ2">
-        <v>0.0007100194343365729</v>
+        <v>0.0005378586356528103</v>
       </c>
       <c r="DA2">
-        <v>0.02148720622062683</v>
+        <v>0.01787190698087215</v>
       </c>
       <c r="DB2">
-        <v>0.01130615454167128</v>
+        <v>0.01328819990158081</v>
       </c>
       <c r="DC2">
-        <v>-0.008430046960711479</v>
+        <v>-0.005055665038526058</v>
       </c>
       <c r="DD2">
-        <v>-0.1075947135686874</v>
+        <v>-0.1096803620457649</v>
       </c>
       <c r="DE2">
-        <v>-0.004038923420011997</v>
+        <v>-0.002984709106385708</v>
       </c>
       <c r="DF2">
-        <v>0.09719847142696381</v>
+        <v>0.09444936364889145</v>
       </c>
       <c r="DG2">
-        <v>-0.006762610748410225</v>
+        <v>-0.007384461350739002</v>
       </c>
       <c r="DH2">
-        <v>0.01195133104920387</v>
+        <v>0.01036947406828403</v>
       </c>
       <c r="DI2">
-        <v>0.00464040320366621</v>
+        <v>0.00336128193885088</v>
       </c>
       <c r="DJ2">
-        <v>-0.001708715106360614</v>
+        <v>-0.0008067441522143781</v>
       </c>
       <c r="DK2">
-        <v>0.004423533566296101</v>
+        <v>0.01229294948279858</v>
       </c>
       <c r="DL2">
-        <v>-0.005691117607057095</v>
+        <v>-0.01500159315764904</v>
       </c>
       <c r="DM2">
-        <v>-0.02645647712051868</v>
+        <v>-0.02164841443300247</v>
       </c>
       <c r="DN2">
-        <v>-0.01245580986142159</v>
+        <v>-0.01107604242861271</v>
       </c>
       <c r="DO2">
-        <v>-0.07815319299697876</v>
+        <v>-0.07934693247079849</v>
       </c>
       <c r="DP2">
-        <v>-0.004568069241940975</v>
+        <v>-0.004908930044621229</v>
       </c>
       <c r="DQ2">
-        <v>-0.004350874572992325</v>
+        <v>-0.002411527326330543</v>
       </c>
       <c r="DR2">
-        <v>0.003090257756412029</v>
+        <v>0.001666878815740347</v>
       </c>
       <c r="DS2">
-        <v>-0.1128670051693916</v>
+        <v>-0.1010821610689163</v>
       </c>
       <c r="DT2">
-        <v>-0.007303747348487377</v>
+        <v>-0.01204024069011211</v>
       </c>
       <c r="DU2">
-        <v>0.08988439291715622</v>
+        <v>0.07890724390745163</v>
       </c>
       <c r="DV2">
-        <v>-0.001480501960031688</v>
+        <v>-0.002837184350937605</v>
       </c>
       <c r="DW2">
-        <v>0.001600773422978818</v>
+        <v>0.0005620773881673813</v>
       </c>
       <c r="DX2">
-        <v>0.03604970872402191</v>
+        <v>0.03699789568781853</v>
       </c>
       <c r="DY2">
-        <v>-0.02450988814234734</v>
+        <v>-0.01931607350707054</v>
       </c>
       <c r="DZ2">
-        <v>0.01156310737133026</v>
+        <v>0.009453368373215199</v>
       </c>
       <c r="EA2">
-        <v>0.06480147689580917</v>
+        <v>0.07342249155044556</v>
       </c>
       <c r="EB2">
-        <v>0.07517203688621521</v>
+        <v>0.07698071002960205</v>
       </c>
       <c r="EC2">
-        <v>-0.004801084287464619</v>
+        <v>-0.001916087465360761</v>
       </c>
       <c r="ED2">
-        <v>0.0559663288295269</v>
+        <v>0.05742849782109261</v>
       </c>
       <c r="EE2">
-        <v>0.009496058337390423</v>
+        <v>0.009461565874516964</v>
       </c>
       <c r="EF2">
-        <v>0.1987241059541702</v>
+        <v>0.1999559998512268</v>
       </c>
       <c r="EG2">
-        <v>0.01148286461830139</v>
+        <v>0.01002735551446676</v>
       </c>
       <c r="EH2">
-        <v>-0.01985433138906956</v>
+        <v>-0.02564540319144726</v>
       </c>
       <c r="EI2">
-        <v>-0.04957960173487663</v>
+        <v>-0.05035152658820152</v>
       </c>
       <c r="EJ2">
-        <v>-0.1327641159296036</v>
+        <v>-0.1226544827222824</v>
       </c>
       <c r="EK2">
-        <v>0.001485045533627272</v>
+        <v>0.001679965062066913</v>
       </c>
       <c r="EL2">
-        <v>-0.004965966567397118</v>
+        <v>-0.003937339875847101</v>
       </c>
       <c r="EM2">
-        <v>-0.05018976330757141</v>
+        <v>-0.05014559254050255</v>
       </c>
       <c r="EN2">
-        <v>0.08180595189332962</v>
+        <v>0.08153436332941055</v>
       </c>
       <c r="EO2">
-        <v>0.0212837029248476</v>
+        <v>0.01875738985836506</v>
       </c>
       <c r="EP2">
-        <v>0.07814562320709229</v>
+        <v>0.08153383433818817</v>
       </c>
       <c r="EQ2">
-        <v>0.07360418885946274</v>
+        <v>0.07554576545953751</v>
       </c>
       <c r="ER2">
-        <v>-0.0007909460109658539</v>
+        <v>0.006793249398469925</v>
       </c>
       <c r="ES2">
-        <v>-0.0125615494325757</v>
+        <v>-0.0139622176066041</v>
       </c>
       <c r="ET2">
-        <v>-0.114555649459362</v>
+        <v>-0.1135311424732208</v>
       </c>
       <c r="EU2">
-        <v>0.01957490481436253</v>
+        <v>0.02211751043796539</v>
       </c>
       <c r="EV2">
-        <v>0.004330916795879602</v>
+        <v>0.004593390040099621</v>
       </c>
       <c r="EW2">
-        <v>0.08158616721630096</v>
+        <v>0.08672535419464111</v>
       </c>
       <c r="EX2">
-        <v>-0.1283580511808395</v>
+        <v>-0.1338706761598587</v>
       </c>
       <c r="EY2">
-        <v>-0.01221442501991987</v>
+        <v>-0.01205381657928228</v>
       </c>
       <c r="EZ2">
-        <v>-0.07221122086048126</v>
+        <v>-0.06329039484262466</v>
       </c>
       <c r="FA2">
-        <v>0.008806176483631134</v>
+        <v>0.01006512530148029</v>
       </c>
       <c r="FB2">
-        <v>0.004748237319290638</v>
+        <v>0.006686435081064701</v>
       </c>
       <c r="FC2">
-        <v>-0.03824839740991592</v>
+        <v>-0.04043081775307655</v>
       </c>
       <c r="FD2">
-        <v>-0.002204585587605834</v>
+        <v>-0.0002884038258343935</v>
       </c>
       <c r="FE2">
-        <v>-0.01479449868202209</v>
+        <v>-0.004439634270966053</v>
       </c>
       <c r="FF2">
-        <v>-0.06077960133552551</v>
+        <v>-0.06533795595169067</v>
       </c>
       <c r="FG2">
-        <v>-0.1151159182190895</v>
+        <v>-0.1143212392926216</v>
       </c>
       <c r="FH2">
-        <v>-0.002836221596226096</v>
+        <v>-0.003102870192378759</v>
       </c>
       <c r="FI2">
-        <v>0.06647079437971115</v>
+        <v>0.06518076360225677</v>
       </c>
       <c r="FJ2">
-        <v>0.0277799628674984</v>
+        <v>0.02248711884021759</v>
       </c>
       <c r="FK2">
-        <v>0.1096565574407578</v>
+        <v>0.1144450828433037</v>
       </c>
       <c r="FL2">
-        <v>0.1176994070410728</v>
+        <v>0.1138683930039406</v>
       </c>
       <c r="FM2">
-        <v>0.05115235596895218</v>
+        <v>0.04329491406679153</v>
       </c>
       <c r="FN2">
-        <v>0.05956831574440002</v>
+        <v>0.05646894872188568</v>
       </c>
       <c r="FO2">
-        <v>-0.01014938205480576</v>
+        <v>-0.005185854155570269</v>
       </c>
       <c r="FP2">
-        <v>0.01647012494504452</v>
+        <v>0.01387631520628929</v>
       </c>
       <c r="FQ2">
-        <v>0.003872908418998122</v>
+        <v>0.004643303342163563</v>
       </c>
       <c r="FR2">
-        <v>-0.004169325809925795</v>
+        <v>-0.001893122913315892</v>
       </c>
       <c r="FS2">
-        <v>-0.0002307783433934674</v>
+        <v>-0.001283075078390539</v>
       </c>
       <c r="FT2">
-        <v>-0.004005984403192997</v>
+        <v>-0.003565556136891246</v>
       </c>
       <c r="FU2">
-        <v>-0.03070557489991188</v>
+        <v>-0.02888085693120956</v>
       </c>
       <c r="FV2">
-        <v>0.04474386945366859</v>
+        <v>0.04419142752885818</v>
       </c>
       <c r="FW2">
-        <v>0.01636986061930656</v>
+        <v>0.02092017978429794</v>
       </c>
       <c r="FX2">
-        <v>0.004583094269037247</v>
+        <v>0.005568950902670622</v>
       </c>
       <c r="FY2">
-        <v>0.006943722255527973</v>
+        <v>0.005501259118318558</v>
       </c>
       <c r="FZ2">
-        <v>0.004248161800205708</v>
+        <v>0.001431124052032828</v>
       </c>
       <c r="GA2">
-        <v>0.06878302991390228</v>
+        <v>0.07874751836061478</v>
       </c>
       <c r="GB2">
-        <v>-0.004776424262672663</v>
+        <v>-0.0002893702767323703</v>
       </c>
       <c r="GC2">
-        <v>-0.05915363132953644</v>
+        <v>-0.05924024432897568</v>
       </c>
       <c r="GD2">
-        <v>0.03555675223469734</v>
+        <v>0.03396135568618774</v>
       </c>
       <c r="GE2">
-        <v>0.006149988621473312</v>
+        <v>0.007560523226857185</v>
       </c>
       <c r="GF2">
-        <v>0.01607812568545341</v>
+        <v>0.01044806279242039</v>
       </c>
       <c r="GG2">
-        <v>-0.03836337476968765</v>
+        <v>-0.03880959749221802</v>
       </c>
       <c r="GH2">
-        <v>-0.002262700814753771</v>
+        <v>-0.0005127790500409901</v>
       </c>
       <c r="GI2">
-        <v>-0.1456198692321777</v>
+        <v>-0.1491638123989105</v>
       </c>
       <c r="GJ2">
-        <v>0.005867809057235718</v>
+        <v>0.00443063210695982</v>
       </c>
       <c r="GK2">
-        <v>0.09793225675821304</v>
+        <v>0.1034201011061668</v>
       </c>
       <c r="GL2">
-        <v>0.1412431746721268</v>
+        <v>0.1416631042957306</v>
       </c>
       <c r="GM2">
-        <v>-0.05849829688668251</v>
+        <v>-0.05192802101373672</v>
       </c>
       <c r="GN2">
-        <v>0.04058502614498138</v>
+        <v>0.0411788783967495</v>
       </c>
       <c r="GO2">
-        <v>0.0736006423830986</v>
+        <v>0.07181752473115921</v>
       </c>
       <c r="GP2">
-        <v>0.006253616418689489</v>
+        <v>0.006696751806885004</v>
       </c>
       <c r="GQ2">
-        <v>-0.005640765186399221</v>
+        <v>-0.003581528784707189</v>
       </c>
       <c r="GR2">
-        <v>0.00246413447894156</v>
+        <v>0.0005106715834699571</v>
       </c>
       <c r="GS2">
-        <v>-0.007099822163581848</v>
+        <v>-0.003179353894665837</v>
       </c>
       <c r="GT2">
-        <v>-0.001607065903954208</v>
+        <v>-0.004039035178720951</v>
       </c>
       <c r="GU2">
-        <v>-0.006244056392461061</v>
+        <v>-0.006731079425662756</v>
       </c>
       <c r="GV2">
-        <v>0.00358665524981916</v>
+        <v>0.005292312242090702</v>
       </c>
       <c r="GW2">
-        <v>0.04522741958498955</v>
+        <v>0.04269808903336525</v>
       </c>
       <c r="GX2">
-        <v>-0.002781670773401856</v>
+        <v>-0.002119021490216255</v>
       </c>
       <c r="GY2">
-        <v>0.01261224318295717</v>
+        <v>0.0140848821029067</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PVT Bank.xlsx
+++ b/static/Models/Regression/Equation/PVT Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005391870159655809</v>
+        <v>0.004952306393533945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09844473004341125</v>
+        <v>0.09665186703205109</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1161831691861153</v>
+        <v>-0.1153283715248108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01519428938627243</v>
+        <v>0.0154499365016818</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01307856757193804</v>
+        <v>-0.0127295758575201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01031707413494587</v>
+        <v>0.008234571665525436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003214848227798939</v>
+        <v>-0.0005136608961038291</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01279740687459707</v>
+        <v>-0.01064750552177429</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03403858840465546</v>
+        <v>-0.03058343008160591</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00981470663100481</v>
+        <v>-0.01555091701447964</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002882326487451792</v>
+        <v>0.001091960002668202</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.002015744801610708</v>
+        <v>-0.006523656193166971</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.002772289328277111</v>
+        <v>0.0005413724575191736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006929196417331696</v>
+        <v>0.00945200864225626</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0780792310833931</v>
+        <v>0.08539524674415588</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09032302349805832</v>
+        <v>0.09860638529062271</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01254728529602289</v>
+        <v>-0.009748446755111217</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01189265493303537</v>
+        <v>0.01417831890285015</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.09590253978967667</v>
+        <v>-0.09439843147993088</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06150749698281288</v>
+        <v>0.06305266171693802</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003120190231129527</v>
+        <v>0.008955624885857105</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0576179139316082</v>
+        <v>0.05673001706600189</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00102037494070828</v>
+        <v>0.006705633830279112</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05398070067167282</v>
+        <v>0.05372732132673264</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02838404104113579</v>
+        <v>-0.03094810247421265</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009942573495209217</v>
+        <v>0.006084106862545013</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.09468989074230194</v>
+        <v>-0.09464053809642792</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05191590264439583</v>
+        <v>0.05018248409032822</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02194128185510635</v>
+        <v>-0.02019639872014523</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07159758359193802</v>
+        <v>0.06851805001497269</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.004261454101651907</v>
+        <v>0.0002470868639647961</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.04909442737698555</v>
+        <v>-0.04720165580511093</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1543475389480591</v>
+        <v>0.1562794595956802</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02824522741138935</v>
+        <v>-0.02844426594674587</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002284142654389143</v>
+        <v>0.005203073378652334</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0005340505158528686</v>
+        <v>-0.004000213928520679</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002679716795682907</v>
+        <v>0.00161429145373404</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.06310497969388962</v>
+        <v>-0.05993101745843887</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.07749498635530472</v>
+        <v>-0.08163034915924072</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.006683770101517439</v>
+        <v>0.003648749087005854</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.03903228417038918</v>
+        <v>0.03637631610035896</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.241390994749963e-05</v>
+        <v>0.002508571138605475</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.04682484269142151</v>
+        <v>0.04694962501525879</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.02721406705677509</v>
+        <v>-0.03079256601631641</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05950478464365005</v>
+        <v>0.05217434093356133</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02522819861769676</v>
+        <v>-0.0276694018393755</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01651923730969429</v>
+        <v>0.01681322418153286</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.02427196502685547</v>
+        <v>-0.02669719979166985</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.04482449591159821</v>
+        <v>-0.04686529934406281</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1119378730654716</v>
+        <v>0.1117900237441063</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.1053385138511658</v>
+        <v>0.1077426075935364</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.02358198910951614</v>
+        <v>-0.02386697940528393</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1480126529932022</v>
+        <v>-0.1502318978309631</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00296381046064198</v>
+        <v>-0.0002954837400466204</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0375652089715004</v>
+        <v>-0.03592567518353462</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.003139915410429239</v>
+        <v>-0.0005735412705689669</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02111200802028179</v>
+        <v>0.01891403459012508</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02763399854302406</v>
+        <v>-0.02571330219507217</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001227714237757027</v>
+        <v>0.001314360764808953</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0457644946873188</v>
+        <v>0.04691721871495247</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0864439532160759</v>
+        <v>-0.08591034263372421</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0126743670552969</v>
+        <v>0.01018304750323296</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.002918909536674619</v>
+        <v>0.002680233446881175</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.07983869314193726</v>
+        <v>0.07774518430233002</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.08278081566095352</v>
+        <v>-0.08341375738382339</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.1723569929599762</v>
+        <v>0.1723429262638092</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01311108376830816</v>
+        <v>0.01484905369579792</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.02682539634406567</v>
+        <v>-0.02730803191661835</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.00242993445135653</v>
+        <v>-0.004812353756278753</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.005706715397536755</v>
+        <v>-0.004695666953921318</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.008347371593117714</v>
+        <v>-0.01204834505915642</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.02549541555345058</v>
+        <v>-0.0229438915848732</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1269789487123489</v>
+        <v>-0.1239018216729164</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.003042503027245402</v>
+        <v>-0.003721504006534815</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.1374714970588684</v>
+        <v>-0.1337177753448486</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.006498829927295446</v>
+        <v>0.00438552163541317</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02259416319429874</v>
+        <v>0.02588623575866222</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.008397039026021957</v>
+        <v>-0.01083823665976524</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0252839382737875</v>
+        <v>-0.02893552370369434</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.003858576528728008</v>
+        <v>-0.001673864782787859</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.004615829791873693</v>
+        <v>0.001830403343774378</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1029712185263634</v>
+        <v>-0.1090045496821404</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01667986996471882</v>
+        <v>0.01906857825815678</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.06810295581817627</v>
+        <v>-0.06196137517690659</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03249509632587433</v>
+        <v>0.03442450985312462</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03569210320711136</v>
+        <v>-0.0341629683971405</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.07406551390886307</v>
+        <v>-0.07313486188650131</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03463022783398628</v>
+        <v>-0.03348411247134209</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.002189364517107606</v>
+        <v>2.478734870692278e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.09372115135192871</v>
+        <v>0.09032392501831055</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.007265971973538399</v>
+        <v>-0.001012336579151452</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.003514918033033609</v>
+        <v>0.005359758157283068</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.09358806163072586</v>
+        <v>0.09146637469530106</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.004424916580319405</v>
+        <v>0.004627197980880737</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.002504290780052543</v>
+        <v>0.0001510459842393175</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0004087015404365957</v>
+        <v>0.001846721512265503</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.001095703220926225</v>
+        <v>0.0008646356291137636</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.009467098861932755</v>
+        <v>0.00719570554792881</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.008028209209442139</v>
+        <v>0.0112828342244029</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01059403829276562</v>
+        <v>0.01045725215226412</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.006198696326464415</v>
+        <v>-0.0003377004177309573</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.04854887723922729</v>
+        <v>0.04604487121105194</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0008714190917089581</v>
+        <v>-0.004142631310969591</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.01883811876177788</v>
+        <v>0.02289269864559174</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.01489937677979469</v>
+        <v>0.01619096659123898</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.001652940642088652</v>
+        <v>0.0009093172266148031</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.1135381758213043</v>
+        <v>-0.110331155359745</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.004169537220150232</v>
+        <v>-0.003226006170734763</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.09079723805189133</v>
+        <v>0.09180085361003876</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.008256545290350914</v>
+        <v>-0.006876737345010042</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01596026495099068</v>
+        <v>0.01358350273221731</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01122401934117079</v>
+        <v>0.007154290098696947</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00412793131545186</v>
+        <v>0.004083795472979546</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02016784809529781</v>
+        <v>0.0207192599773407</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.01981561817228794</v>
+        <v>-0.01760623045265675</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.01567860133945942</v>
+        <v>-0.01360806077718735</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.01234862022101879</v>
+        <v>-0.01035931706428528</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0844353660941124</v>
+        <v>-0.07954492419958115</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.006441702134907246</v>
+        <v>-0.007052169181406498</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.004424191080033779</v>
+        <v>-0.003430159296840429</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.003536403411999345</v>
+        <v>0.002208353020250797</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.1018315628170967</v>
+        <v>-0.0991416797041893</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.01103944983333349</v>
+        <v>-0.01112952362746</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.07353996485471725</v>
+        <v>0.07172127813100815</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.002428129315376282</v>
+        <v>0.005154552403837442</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.006293484475463629</v>
+        <v>-0.0004065991088282317</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.03538243472576141</v>
+        <v>0.03728101402521133</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.02076504565775394</v>
+        <v>-0.01881042122840881</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.004547329153865576</v>
+        <v>0.00465119257569313</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.07958444207906723</v>
+        <v>0.07894319295883179</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.07493270933628082</v>
+        <v>0.0765705481171608</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.002263498026877642</v>
+        <v>-0.005792174953967333</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.05480287596583366</v>
+        <v>0.0563480444252491</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.007610199972987175</v>
+        <v>0.009039684198796749</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1956583708524704</v>
+        <v>0.1969254612922668</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.003730681957677007</v>
+        <v>0.005578288342803717</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.02583064883947372</v>
+        <v>-0.02521947212517262</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.05285481363534927</v>
+        <v>-0.04883772134780884</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1244101375341415</v>
+        <v>-0.1130849197506905</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0006865294999442995</v>
+        <v>0.001353548257611692</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.004500693641602993</v>
+        <v>-0.002618482336401939</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.05567476525902748</v>
+        <v>-0.05457760766148567</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.08565470576286316</v>
+        <v>0.08090323954820633</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01317910570651293</v>
+        <v>0.01700283214449883</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.08310795575380325</v>
+        <v>0.08164715766906738</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0713120698928833</v>
+        <v>0.06936414539813995</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001845237915404141</v>
+        <v>0.004033352248370647</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.01804498210549355</v>
+        <v>-0.01573399640619755</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1087410673499107</v>
+        <v>-0.1062008440494537</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02223701030015945</v>
+        <v>0.02210113033652306</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.009126238524913788</v>
+        <v>0.01241991482675076</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.08018877357244492</v>
+        <v>0.08424205332994461</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1276150792837143</v>
+        <v>-0.128532275557518</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01152884494513273</v>
+        <v>-0.008727016858756542</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07058006525039673</v>
+        <v>-0.06633681058883667</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006424109451472759</v>
+        <v>0.00738851074129343</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.004315814934670925</v>
+        <v>0.005383746698498726</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.03654203936457634</v>
+        <v>-0.03537138178944588</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.002584160305559635</v>
+        <v>-0.006007746793329716</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.005096385721117258</v>
+        <v>-0.002817666623741388</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.05878101661801338</v>
+        <v>-0.06313139945268631</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1180116608738899</v>
+        <v>-0.1158098503947258</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.007283854763954878</v>
+        <v>-0.009539983235299587</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06854844838380814</v>
+        <v>0.06872584670782089</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02641060389578342</v>
+        <v>0.03104657307267189</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.1203291118144989</v>
+        <v>0.1173581480979919</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.1086968407034874</v>
+        <v>0.1082077473402023</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0389234647154808</v>
+        <v>0.03978122770786285</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0551561526954174</v>
+        <v>0.05594745650887489</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.01154516916722059</v>
+        <v>-0.01397069916129112</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01516423281282187</v>
+        <v>0.009784698486328125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.004483653698116541</v>
+        <v>0.006379850208759308</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.004180306103080511</v>
+        <v>-0.003163394751027226</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.003081365488469601</v>
+        <v>-0.001016088761389256</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.003552312264218926</v>
+        <v>-0.001513926312327385</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.03100824169814587</v>
+        <v>-0.02964789234101772</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.04282389208674431</v>
+        <v>0.04429415985941887</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01796144433319569</v>
+        <v>0.01925685256719589</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.001736491452902555</v>
+        <v>-0.003401818219572306</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004830567166209221</v>
+        <v>0.004618180450052023</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.001301347278058529</v>
+        <v>5.300444536260329e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0818801149725914</v>
+        <v>0.08333867788314819</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.005169494543224573</v>
+        <v>0.001403500675223768</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06354951113462448</v>
+        <v>-0.06493092328310013</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.03877976164221764</v>
+        <v>0.03672822937369347</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.006406609434634447</v>
+        <v>0.008351507596671581</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.009241094812750816</v>
+        <v>0.009471147321164608</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.03927503898739815</v>
+        <v>-0.03790970146656036</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.007886937819421291</v>
+        <v>0.01092011574655771</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1512343138456345</v>
+        <v>-0.1573782861232758</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.008553110994398594</v>
+        <v>0.00892025139182806</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.1056791916489601</v>
+        <v>0.107698567211628</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.1384189575910568</v>
+        <v>0.1408374607563019</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.05385832861065865</v>
+        <v>-0.04783199355006218</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.03427582606673241</v>
+        <v>0.03128200396895409</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.07732070237398148</v>
+        <v>0.08299151062965393</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.005309503525495529</v>
+        <v>0.007346149068325758</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.008956425823271275</v>
+        <v>-0.009018313139677048</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.006585214752703905</v>
+        <v>0.005688068922609091</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.00113154761493206</v>
+        <v>-0.004090665839612484</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.0005489333998411894</v>
+        <v>-0.003347038524225354</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.003334930166602135</v>
+        <v>-0.005782642867416143</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.005308203864842653</v>
+        <v>0.003755775047466159</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.03883591294288635</v>
+        <v>0.03671225532889366</v>
       </c>
       <c r="GX2" t="n">
-        <v>2.79932537523564e-05</v>
+        <v>0.002219317480921745</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.01251470670104027</v>
+        <v>0.01430091634392738</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/PVT Bank.xlsx
+++ b/static/Models/Regression/Equation/PVT Bank.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004952306393533945</v>
+        <v>0.00621020095422864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09665186703205109</v>
+        <v>0.09347779303789139</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1153283715248108</v>
+        <v>-0.1154011636972427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0154499365016818</v>
+        <v>0.01450530812144279</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0127295758575201</v>
+        <v>-0.01257756166160107</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008234571665525436</v>
+        <v>0.008653296157717705</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0005136608961038291</v>
+        <v>0.002454681089147925</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01064750552177429</v>
+        <v>-0.01095827575773001</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03058343008160591</v>
+        <v>-0.02844367548823357</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01555091701447964</v>
+        <v>-0.01163472607731819</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001091960002668202</v>
+        <v>-0.001625678269192576</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.006523656193166971</v>
+        <v>-0.003255489515140653</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0005413724575191736</v>
+        <v>0.0007495650788769126</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00945200864225626</v>
+        <v>0.01212463434785604</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08539524674415588</v>
+        <v>0.08685551583766937</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09860638529062271</v>
+        <v>0.0982443243265152</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.009748446755111217</v>
+        <v>-0.01094923727214336</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01417831890285015</v>
+        <v>0.01501457486301661</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.09439843147993088</v>
+        <v>-0.09440852701663971</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06305266171693802</v>
+        <v>0.05890199169516563</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008955624885857105</v>
+        <v>0.008392181247472763</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05673001706600189</v>
+        <v>0.06009507924318314</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006705633830279112</v>
+        <v>0.005484469700604677</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05372732132673264</v>
+        <v>0.05469456315040588</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03094810247421265</v>
+        <v>-0.03309569135308266</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006084106862545013</v>
+        <v>0.006350138690322638</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.09464053809642792</v>
+        <v>-0.09565270692110062</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05018248409032822</v>
+        <v>0.0506250374019146</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02019639872014523</v>
+        <v>-0.02049103751778603</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06851805001497269</v>
+        <v>0.06591338664293289</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0002470868639647961</v>
+        <v>0.0007796977879479527</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.04720165580511093</v>
+        <v>-0.04732774570584297</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1562794595956802</v>
+        <v>0.1593899130821228</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02844426594674587</v>
+        <v>-0.02923015877604485</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.005203073378652334</v>
+        <v>0.007259522564709187</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.004000213928520679</v>
+        <v>-0.003727086121216416</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00161429145373404</v>
+        <v>-0.0002622177999000996</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.05993101745843887</v>
+        <v>-0.06178763508796692</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.08163034915924072</v>
+        <v>-0.08317601680755615</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.003648749087005854</v>
+        <v>0.006161216646432877</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.03637631610035896</v>
+        <v>0.03291993215680122</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.002508571138605475</v>
+        <v>0.001618036767467856</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.04694962501525879</v>
+        <v>0.04737977683544159</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.03079256601631641</v>
+        <v>-0.03356760367751122</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05217434093356133</v>
+        <v>0.05185707286000252</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0276694018393755</v>
+        <v>-0.02796453982591629</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01681322418153286</v>
+        <v>0.01865820586681366</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.02669719979166985</v>
+        <v>-0.02658915519714355</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.04686529934406281</v>
+        <v>-0.03648427873849869</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1117900237441063</v>
+        <v>0.1117809936404228</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.1077426075935364</v>
+        <v>0.1142849996685982</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.02386697940528393</v>
+        <v>-0.02567790821194649</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1502318978309631</v>
+        <v>-0.1505950093269348</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0002954837400466204</v>
+        <v>0.001549913315102458</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.03592567518353462</v>
+        <v>-0.0362524688243866</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0005735412705689669</v>
+        <v>0.00176079839002341</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01891403459012508</v>
+        <v>0.01641134545207024</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02571330219507217</v>
+        <v>-0.02604656666517258</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001314360764808953</v>
+        <v>0.001965991919860244</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.04691721871495247</v>
+        <v>0.04743807017803192</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.08591034263372421</v>
+        <v>-0.08090917766094208</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.01018304750323296</v>
+        <v>0.009065745398402214</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.002680233446881175</v>
+        <v>0.003126394702121615</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.07774518430233002</v>
+        <v>0.07707937806844711</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.08341375738382339</v>
+        <v>-0.08080003410577774</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.1723429262638092</v>
+        <v>0.174531415104866</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01484905369579792</v>
+        <v>0.01153043564409018</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.02730803191661835</v>
+        <v>-0.0238898191601038</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.004812353756278753</v>
+        <v>-0.005176030565053225</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.004695666953921318</v>
+        <v>-0.005613494198769331</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.01204834505915642</v>
+        <v>-0.01179640460759401</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.0229438915848732</v>
+        <v>-0.02410370483994484</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1239018216729164</v>
+        <v>-0.1201806515455246</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.003721504006534815</v>
+        <v>-0.002470978768542409</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.1337177753448486</v>
+        <v>-0.1313077509403229</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.00438552163541317</v>
+        <v>0.003824001178145409</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02588623575866222</v>
+        <v>0.02800939232110977</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01083823665976524</v>
+        <v>-0.01132473070174456</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.02893552370369434</v>
+        <v>-0.02527814172208309</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.001673864782787859</v>
+        <v>-0.001953770872205496</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.001830403343774378</v>
+        <v>-0.0005256723961792886</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1090045496821404</v>
+        <v>-0.1066804155707359</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01906857825815678</v>
+        <v>0.01660325564444065</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.06196137517690659</v>
+        <v>-0.06234675645828247</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03442450985312462</v>
+        <v>0.04236998781561852</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0341629683971405</v>
+        <v>-0.03457346186041832</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.07313486188650131</v>
+        <v>-0.07249984890222549</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03348411247134209</v>
+        <v>-0.03479095175862312</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.478734870692278e-07</v>
+        <v>-0.0002538114786148071</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.09032392501831055</v>
+        <v>0.08638711273670197</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.001012336579151452</v>
+        <v>0.002585356822237372</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.005359758157283068</v>
+        <v>0.004561298061162233</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.09146637469530106</v>
+        <v>0.09278479218482971</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.004627197980880737</v>
+        <v>0.004103844054043293</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0001510459842393175</v>
+        <v>0.001768588437698781</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.001846721512265503</v>
+        <v>0.00167328433599323</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0008646356291137636</v>
+        <v>0.000755699526052922</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00719570554792881</v>
+        <v>0.007933507673442364</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0112828342244029</v>
+        <v>0.01178945228457451</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01045725215226412</v>
+        <v>0.008161749690771103</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0003377004177309573</v>
+        <v>-0.002866691676899791</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.04604487121105194</v>
+        <v>0.0460604690015316</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.004142631310969591</v>
+        <v>-0.001517408760264516</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.02289269864559174</v>
+        <v>0.02365639247000217</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.01619096659123898</v>
+        <v>0.02014199830591679</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0009093172266148031</v>
+        <v>0.003164616413414478</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.110331155359745</v>
+        <v>-0.1090541034936905</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.003226006170734763</v>
+        <v>-0.003323399927467108</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.09180085361003876</v>
+        <v>0.08962222188711166</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.006876737345010042</v>
+        <v>-0.006030657794326544</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01358350273221731</v>
+        <v>0.01258102245628834</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.007154290098696947</v>
+        <v>0.002484977012500167</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.004083795472979546</v>
+        <v>0.004396888893097639</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0207192599773407</v>
+        <v>0.02154675871133804</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.01760623045265675</v>
+        <v>-0.01706608384847641</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.01360806077718735</v>
+        <v>-0.01051407773047686</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.01035931706428528</v>
+        <v>-0.01074592117220163</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.07954492419958115</v>
+        <v>-0.07866017520427704</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.007052169181406498</v>
+        <v>-0.005516102071851492</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.003430159296840429</v>
+        <v>-0.003343938617035747</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002208353020250797</v>
+        <v>-0.006328538060188293</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0991416797041893</v>
+        <v>-0.0985710471868515</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.01112952362746</v>
+        <v>-0.007547864690423012</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.07172127813100815</v>
+        <v>0.07178998738527298</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.005154552403837442</v>
+        <v>0.00148856989108026</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0004065991088282317</v>
+        <v>-0.0002223830670118332</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.03728101402521133</v>
+        <v>0.03659811988472939</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.01881042122840881</v>
+        <v>-0.01750984415411949</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.00465119257569313</v>
+        <v>0.008130025118589401</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.07894319295883179</v>
+        <v>0.08003340661525726</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0765705481171608</v>
+        <v>0.07642412930727005</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.005792174953967333</v>
+        <v>-0.006733666639775038</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0563480444252491</v>
+        <v>0.05632911622524261</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.009039684198796749</v>
+        <v>0.008841010741889477</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1969254612922668</v>
+        <v>0.1924508512020111</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005578288342803717</v>
+        <v>0.001601981814019382</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.02521947212517262</v>
+        <v>-0.02977494709193707</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.04883772134780884</v>
+        <v>-0.04668818786740303</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1130849197506905</v>
+        <v>-0.1129822507500648</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.001353548257611692</v>
+        <v>0.001135045662522316</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.002618482336401939</v>
+        <v>-0.003492529736831784</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.05457760766148567</v>
+        <v>-0.0601237565279007</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.08090323954820633</v>
+        <v>0.07712618261575699</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01700283214449883</v>
+        <v>0.0169255118817091</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.08164715766906738</v>
+        <v>0.0850580707192421</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06936414539813995</v>
+        <v>0.06746909022331238</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004033352248370647</v>
+        <v>0.007610647473484278</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.01573399640619755</v>
+        <v>-0.01633015647530556</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1062008440494537</v>
+        <v>-0.101873092353344</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02210113033652306</v>
+        <v>0.02522923052310944</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01241991482675076</v>
+        <v>0.01582984440028667</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.08424205332994461</v>
+        <v>0.08486480265855789</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.128532275557518</v>
+        <v>-0.1238727867603302</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.008727016858756542</v>
+        <v>-0.01009854953736067</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06633681058883667</v>
+        <v>-0.0638711079955101</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00738851074129343</v>
+        <v>0.01029005274176598</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.005383746698498726</v>
+        <v>0.005253838840872049</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.03537138178944588</v>
+        <v>-0.03880922868847847</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.006007746793329716</v>
+        <v>-0.003179352730512619</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.002817666623741388</v>
+        <v>-0.001558165880851448</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.06313139945268631</v>
+        <v>-0.06649041920900345</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1158098503947258</v>
+        <v>-0.1116224303841591</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.009539983235299587</v>
+        <v>-0.006064903922379017</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.06872584670782089</v>
+        <v>0.07085493206977844</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.03104657307267189</v>
+        <v>0.03246030956506729</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.1173581480979919</v>
+        <v>0.1295591592788696</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.1082077473402023</v>
+        <v>0.1040804460644722</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.03978122770786285</v>
+        <v>0.04116109013557434</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.05594745650887489</v>
+        <v>0.05606355145573616</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.01397069916129112</v>
+        <v>-0.01582808420062065</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.009784698486328125</v>
+        <v>0.009200505912303925</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.006379850208759308</v>
+        <v>0.005764065776020288</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.003163394751027226</v>
+        <v>-0.00305609661154449</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.001016088761389256</v>
+        <v>-0.001142004621215165</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001513926312327385</v>
+        <v>-0.002367130247876048</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.02964789234101772</v>
+        <v>-0.02942154370248318</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.04429415985941887</v>
+        <v>0.0433320663869381</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01925685256719589</v>
+        <v>0.02000165730714798</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.003401818219572306</v>
+        <v>-0.005199573002755642</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004618180450052023</v>
+        <v>0.003853994654491544</v>
       </c>
       <c r="FZ2" t="n">
-        <v>5.300444536260329e-05</v>
+        <v>-0.002065365435555577</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.08333867788314819</v>
+        <v>0.08344191312789917</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.001403500675223768</v>
+        <v>0.004330296069383621</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06493092328310013</v>
+        <v>-0.06071077659726143</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.03672822937369347</v>
+        <v>0.03819413110613823</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.008351507596671581</v>
+        <v>0.007736043073236942</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.009471147321164608</v>
+        <v>0.006497371010482311</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.03790970146656036</v>
+        <v>-0.04077643901109695</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.01092011574655771</v>
+        <v>0.006086321547627449</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1573782861232758</v>
+        <v>-0.1586150974035263</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00892025139182806</v>
+        <v>0.002282992238178849</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.107698567211628</v>
+        <v>0.1092164739966393</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.1408374607563019</v>
+        <v>0.1443881243467331</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.04783199355006218</v>
+        <v>-0.04758086428046227</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.03128200396895409</v>
+        <v>0.03069894015789032</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.08299151062965393</v>
+        <v>0.08461811393499374</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.007346149068325758</v>
+        <v>0.006877053994685411</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.009018313139677048</v>
+        <v>-0.005395096726715565</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.005688068922609091</v>
+        <v>0.004844361450523138</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.004090665839612484</v>
+        <v>0.004000578541308641</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.003347038524225354</v>
+        <v>-0.003740559564903378</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.005782642867416143</v>
+        <v>-0.005668301600962877</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.003755775047466159</v>
+        <v>0.003655527951195836</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.03671225532889366</v>
+        <v>0.03489894047379494</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.002219317480921745</v>
+        <v>0.001677941763773561</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.01430091634392738</v>
+        <v>0.01383388321846724</v>
       </c>
     </row>
   </sheetData>
